--- a/900 - documenti/Prodotta da Amco/Dizionario_Controlli_v0.1.xlsx
+++ b/900 - documenti/Prodotta da Amco/Dizionario_Controlli_v0.1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente627\Desktop\AMCO\Panel dei controlli\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806FD26A-327E-4D66-A1FF-5854D3DE750C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="591" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="9" r:id="rId1"/>
@@ -354,13 +348,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hexe</author>
     <author>Francesco Fusco</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -386,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -410,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -434,7 +428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -458,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="H4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -483,7 +477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="H5" authorId="1">
       <text>
         <r>
           <rPr>
@@ -508,7 +502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="H6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -533,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="C8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -557,7 +551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C95" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="C95" authorId="0">
       <text>
         <r>
           <rPr>
@@ -581,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="D96" authorId="0">
       <text>
         <r>
           <rPr>
@@ -605,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="C97" authorId="0">
       <text>
         <r>
           <rPr>
@@ -632,7 +626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H116" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="H116" authorId="1">
       <text>
         <r>
           <rPr>
@@ -657,7 +651,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C138" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="C138" authorId="0">
       <text>
         <r>
           <rPr>
@@ -681,7 +675,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C139" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="C139" authorId="0">
       <text>
         <r>
           <rPr>
@@ -705,7 +699,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H139" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="H139" authorId="1">
       <text>
         <r>
           <rPr>
@@ -730,7 +724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C143" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="C143" authorId="0">
       <text>
         <r>
           <rPr>
@@ -754,7 +748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C145" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="C145" authorId="0">
       <text>
         <r>
           <rPr>
@@ -778,7 +772,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H145" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="H145" authorId="1">
       <text>
         <r>
           <rPr>
@@ -803,7 +797,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C146" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+    <comment ref="C146" authorId="0">
       <text>
         <r>
           <rPr>
@@ -827,7 +821,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C157" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="C157" authorId="0">
       <text>
         <r>
           <rPr>
@@ -851,7 +845,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C191" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+    <comment ref="C191" authorId="0">
       <text>
         <r>
           <rPr>
@@ -875,7 +869,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D191" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
+    <comment ref="D191" authorId="0">
       <text>
         <r>
           <rPr>
@@ -899,7 +893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H195" authorId="1" shapeId="0" xr:uid="{B7E56A39-1D46-412E-9C16-84FF391E5F5D}">
+    <comment ref="H195" authorId="1">
       <text>
         <r>
           <rPr>
@@ -924,7 +918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H196" authorId="1" shapeId="0" xr:uid="{64C899AD-6D91-4C4C-9DDF-C185CB3B7F5C}">
+    <comment ref="H196" authorId="1">
       <text>
         <r>
           <rPr>
@@ -3675,7 +3669,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\ mmmm\ yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\-mmmm\-yyyy"/>
@@ -4348,8 +4342,8 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Normale 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normale 3" xfId="3" xr:uid="{DA911FD0-4CF8-4D03-B2F5-40D1140BBA57}"/>
+    <cellStyle name="Normale 2" xfId="1"/>
+    <cellStyle name="Normale 3" xfId="3"/>
     <cellStyle name="Percentuale" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
@@ -4377,7 +4371,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -4413,7 +4407,7 @@
         <xdr:cNvPr id="5" name="Immagine 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9718D529-4D53-45E2-AED4-C7B1A260BB0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9718D529-4D53-45E2-AED4-C7B1A260BB0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4462,7 +4456,7 @@
         <xdr:cNvPr id="4" name="Immagine 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4506,7 +4500,7 @@
         <xdr:cNvPr id="5" name="Immagine 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15475,7 +15469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15508,26 +15502,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15560,23 +15537,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -15752,10 +15712,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE48F945-5326-4088-ACAE-200B404517DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -15769,7 +15729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:E24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
@@ -15904,12 +15864,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA196"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G198" sqref="G198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16423,7 +16384,7 @@
       <c r="Z8" s="56"/>
       <c r="AA8" s="56"/>
     </row>
-    <row r="9" spans="1:27" ht="50" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="50" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="59">
         <v>91</v>
       </c>
@@ -16610,7 +16571,7 @@
       <c r="Z11" s="56"/>
       <c r="AA11" s="56"/>
     </row>
-    <row r="12" spans="1:27" ht="60" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="59">
         <v>4</v>
       </c>
@@ -16685,7 +16646,7 @@
       </c>
       <c r="AA12" s="56"/>
     </row>
-    <row r="13" spans="1:27" ht="60" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="59">
         <v>31</v>
       </c>
@@ -16760,7 +16721,7 @@
       </c>
       <c r="AA13" s="56"/>
     </row>
-    <row r="14" spans="1:27" ht="70" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="59">
         <v>17</v>
       </c>
@@ -16839,7 +16800,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="60" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="59">
         <v>33</v>
       </c>
@@ -16912,7 +16873,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="60" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="59">
         <v>34</v>
       </c>
@@ -16991,7 +16952,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="60" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="69">
         <v>35</v>
       </c>
@@ -17070,7 +17031,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="60" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="59">
         <v>36</v>
       </c>
@@ -18645,7 +18606,7 @@
       <c r="Z46" s="56"/>
       <c r="AA46" s="56"/>
     </row>
-    <row r="47" spans="1:27" ht="80" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" ht="80" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="59">
         <v>36</v>
       </c>
@@ -18724,7 +18685,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="60" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="59">
         <v>23</v>
       </c>
@@ -18854,7 +18815,7 @@
       <c r="Z49" s="56"/>
       <c r="AA49" s="56"/>
     </row>
-    <row r="50" spans="1:27" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" ht="32.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="59">
         <v>7</v>
       </c>
@@ -18931,7 +18892,7 @@
       </c>
       <c r="AA50" s="56"/>
     </row>
-    <row r="51" spans="1:27" ht="60" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:27" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="59">
         <v>8</v>
       </c>
@@ -19008,7 +18969,7 @@
       </c>
       <c r="AA51" s="56"/>
     </row>
-    <row r="52" spans="1:27" ht="60" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:27" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="59">
         <v>9</v>
       </c>
@@ -19299,7 +19260,7 @@
       <c r="Z56" s="56"/>
       <c r="AA56" s="56"/>
     </row>
-    <row r="57" spans="1:27" ht="20" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:27" ht="20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="59">
         <v>126</v>
       </c>
@@ -19376,7 +19337,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="20" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:27" ht="20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="59">
         <v>190</v>
       </c>
@@ -19453,7 +19414,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="21" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="59">
         <v>106</v>
       </c>
@@ -19799,7 +19760,7 @@
       <c r="Z64" s="56"/>
       <c r="AA64" s="56"/>
     </row>
-    <row r="65" spans="1:27" ht="20" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" ht="20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="59">
         <v>92</v>
       </c>
@@ -20924,7 +20885,7 @@
       <c r="Z85" s="56"/>
       <c r="AA85" s="56"/>
     </row>
-    <row r="86" spans="1:27" ht="100" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:27" ht="100" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="59">
         <v>79</v>
       </c>
@@ -21001,7 +20962,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="80" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:27" ht="80" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="59">
         <v>76</v>
       </c>
@@ -21288,7 +21249,7 @@
       <c r="Z91" s="56"/>
       <c r="AA91" s="56"/>
     </row>
-    <row r="92" spans="1:27" ht="40" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:27" ht="40" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="59">
         <v>108</v>
       </c>
@@ -21418,7 +21379,7 @@
       <c r="Z93" s="56"/>
       <c r="AA93" s="56"/>
     </row>
-    <row r="94" spans="1:27" ht="20" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:27" ht="20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="59">
         <v>81</v>
       </c>
@@ -21493,7 +21454,7 @@
       </c>
       <c r="AA94" s="56"/>
     </row>
-    <row r="95" spans="1:27" ht="80" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:27" ht="80" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="59">
         <v>13</v>
       </c>
@@ -21570,7 +21531,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="20" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:27" ht="20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="74">
         <v>83</v>
       </c>
@@ -21625,7 +21586,7 @@
       <c r="Z96" s="56"/>
       <c r="AA96" s="56"/>
     </row>
-    <row r="97" spans="1:27" ht="127.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:27" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="59">
         <v>147</v>
       </c>
@@ -21698,7 +21659,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="20" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:27" ht="20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="59">
         <v>84</v>
       </c>
@@ -22148,7 +22109,7 @@
       <c r="Z105" s="56"/>
       <c r="AA105" s="56"/>
     </row>
-    <row r="106" spans="1:27" ht="30" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:27" ht="30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="59">
         <v>114</v>
       </c>
@@ -22227,7 +22188,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="40" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:27" ht="40" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="59">
         <v>86</v>
       </c>
@@ -22512,7 +22473,7 @@
       <c r="Z111" s="56"/>
       <c r="AA111" s="56"/>
     </row>
-    <row r="112" spans="1:27" ht="40" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:27" ht="40" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="59">
         <v>88</v>
       </c>
@@ -22691,7 +22652,7 @@
       <c r="Z114" s="56"/>
       <c r="AA114" s="56"/>
     </row>
-    <row r="115" spans="1:27" ht="21" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:27" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="59">
         <v>119</v>
       </c>
@@ -22766,7 +22727,7 @@
       </c>
       <c r="AA115" s="56"/>
     </row>
-    <row r="116" spans="1:27" ht="30" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:27" ht="30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="59">
         <v>120</v>
       </c>
@@ -22843,7 +22804,7 @@
       </c>
       <c r="AA116" s="56"/>
     </row>
-    <row r="117" spans="1:27" ht="20" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:27" ht="20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="59">
         <v>87</v>
       </c>
@@ -23073,7 +23034,7 @@
       <c r="Z120" s="56"/>
       <c r="AA120" s="56"/>
     </row>
-    <row r="121" spans="1:27" ht="70" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:27" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="59">
         <v>93</v>
       </c>
@@ -23864,7 +23825,7 @@
       <c r="Z135" s="56"/>
       <c r="AA135" s="56"/>
     </row>
-    <row r="136" spans="1:27" s="32" customFormat="1" ht="50" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:27" s="32" customFormat="1" ht="50" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="59">
         <v>141</v>
       </c>
@@ -23941,7 +23902,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="137" spans="1:27" ht="80" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:27" ht="80" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="59">
         <v>142</v>
       </c>
@@ -24020,7 +23981,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="138" spans="1:27" s="32" customFormat="1" ht="80" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:27" s="32" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="59">
         <v>139</v>
       </c>
@@ -24099,7 +24060,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="139" spans="1:27" ht="21" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:27" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="69">
         <v>140</v>
       </c>
@@ -24205,7 +24166,7 @@
       <c r="Z140" s="56"/>
       <c r="AA140" s="56"/>
     </row>
-    <row r="141" spans="1:27" ht="40" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:27" ht="40" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="69">
         <v>144</v>
       </c>
@@ -24278,7 +24239,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="142" spans="1:27" ht="30" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:27" ht="30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="59">
         <v>99</v>
       </c>
@@ -24518,7 +24479,7 @@
       <c r="Z145" s="56"/>
       <c r="AA145" s="56"/>
     </row>
-    <row r="146" spans="1:27" ht="20" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:27" ht="20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="59">
         <v>104</v>
       </c>
@@ -24595,7 +24556,7 @@
       </c>
       <c r="AA146" s="56"/>
     </row>
-    <row r="147" spans="1:27" ht="20" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:27" ht="20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="59">
         <v>89</v>
       </c>
@@ -24672,7 +24633,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="148" spans="1:27" ht="30" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:27" ht="30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="59">
         <v>90</v>
       </c>
@@ -24953,7 +24914,7 @@
       <c r="Z152" s="56"/>
       <c r="AA152" s="56"/>
     </row>
-    <row r="153" spans="1:27" ht="20" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:27" ht="20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="59">
         <v>100</v>
       </c>
@@ -25026,7 +24987,7 @@
       </c>
       <c r="AA153" s="56"/>
     </row>
-    <row r="154" spans="1:27" ht="21" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:27" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="59">
         <v>101</v>
       </c>
@@ -25150,7 +25111,7 @@
       <c r="Z155" s="56"/>
       <c r="AA155" s="56"/>
     </row>
-    <row r="156" spans="1:27" ht="20" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:27" ht="20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="59">
         <v>103</v>
       </c>
@@ -25223,7 +25184,7 @@
       </c>
       <c r="AA156" s="56"/>
     </row>
-    <row r="157" spans="1:27" ht="30" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:27" ht="30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="59">
         <v>146</v>
       </c>
@@ -26472,7 +26433,7 @@
       <c r="Z179" s="56"/>
       <c r="AA179" s="56"/>
     </row>
-    <row r="180" spans="1:27" ht="40" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:27" ht="40" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="59">
         <v>18</v>
       </c>
@@ -26549,7 +26510,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="181" spans="1:27" ht="60" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:27" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="59">
         <v>54</v>
       </c>
@@ -26724,7 +26685,7 @@
       <c r="Z183" s="56"/>
       <c r="AA183" s="56"/>
     </row>
-    <row r="184" spans="1:27" ht="70" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:27" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="59">
         <v>48</v>
       </c>
@@ -26854,7 +26815,7 @@
       <c r="Z185" s="56"/>
       <c r="AA185" s="56"/>
     </row>
-    <row r="186" spans="1:27" ht="60" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:27" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="59">
         <v>15</v>
       </c>
@@ -26982,7 +26943,7 @@
       <c r="Z187" s="56"/>
       <c r="AA187" s="56"/>
     </row>
-    <row r="188" spans="1:27" ht="20" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:27" ht="20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="59">
         <v>53</v>
       </c>
@@ -27059,7 +27020,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="189" spans="1:27" ht="40" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:27" ht="40" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="59">
         <v>55</v>
       </c>
@@ -27342,7 +27303,7 @@
       <c r="Z193" s="56"/>
       <c r="AA193" s="56"/>
     </row>
-    <row r="194" spans="1:27" ht="30" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:27" ht="30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="59">
         <v>189</v>
       </c>
@@ -27419,7 +27380,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="195" spans="1:27" ht="20" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:27" ht="20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="59"/>
       <c r="B195" s="58" t="s">
         <v>136</v>
@@ -27494,7 +27455,7 @@
       </c>
       <c r="AA195" s="56"/>
     </row>
-    <row r="196" spans="1:27" ht="20" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:27" ht="20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="80"/>
       <c r="B196" s="58" t="s">
         <v>136</v>
@@ -27572,7 +27533,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AA196" xr:uid="{892CBF05-E044-42E9-AC79-4548B76B5CFC}"/>
+  <autoFilter ref="A2:AA196">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="No"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Sì"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -27580,7 +27552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02ADC1BD-3316-4B15-9FD5-510DAA093DA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
@@ -27698,14 +27670,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:D11" xr:uid="{3346F37A-866E-4297-B317-ADBF4DC536AB}"/>
+  <autoFilter ref="B3:D11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
